--- a/src/main/resources/cheque.xlsx
+++ b/src/main/resources/cheque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\virtual_D\Projects\JAVA\mezShop\back\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4121F97-71A2-49BD-BF83-05BD6FB45090}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484EFFD-F9CD-4AAF-AEA8-AB85141EB10D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7250" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Руководитель</t>
   </si>
   <si>
-    <t>Васильев А. Л.</t>
-  </si>
-  <si>
     <t>должность</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>mez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Васильев А. Л.</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -556,11 +556,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -586,6 +595,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,6 +677,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,11 +695,50 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -679,56 +746,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="AN37" sqref="AN37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31:AL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1086,863 +1108,863 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
     </row>
     <row r="2" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="14" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="15">
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="21">
         <v>44525411</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
     </row>
     <row r="4" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="20" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
     </row>
     <row r="5" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="19"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="25"/>
     </row>
     <row r="6" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
         <v>7701590872</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28">
+      <c r="L6" s="33"/>
+      <c r="M6" s="34">
         <v>773601001</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="16" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
     </row>
     <row r="7" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="30"/>
     </row>
     <row r="8" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="30"/>
     </row>
     <row r="9" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="19"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="25"/>
     </row>
     <row r="11" spans="2:38" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
     </row>
     <row r="12" spans="2:38" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
     </row>
     <row r="14" spans="2:38" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:38" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
     </row>
     <row r="16" spans="2:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="48" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
     </row>
     <row r="18" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="48" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
     </row>
     <row r="21" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
     </row>
     <row r="22" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:38" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
     </row>
     <row r="24" spans="2:38" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32" t="s">
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32" t="s">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32" t="s">
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33" t="s">
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
     </row>
     <row r="26" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="35">
+      <c r="B26" s="42">
         <v>1</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
     </row>
     <row r="27" spans="2:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35">
+      <c r="B27" s="42">
         <v>2</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
     </row>
     <row r="28" spans="2:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35">
+      <c r="B28" s="42">
         <v>3</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
     </row>
     <row r="29" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36">
+      <c r="B29" s="50">
         <v>4</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
     </row>
     <row r="30" spans="2:38" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
@@ -1983,123 +2005,129 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB31" s="37" t="s">
+    <row r="31" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-    </row>
-    <row r="32" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB32" s="37" t="s">
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+    </row>
+    <row r="32" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-    </row>
-    <row r="33" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB33" s="37" t="s">
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+    </row>
+    <row r="33" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
     </row>
     <row r="34" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
     </row>
     <row r="35" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
     </row>
     <row r="36" spans="2:38" s="1" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2142,22 +2170,22 @@
       <c r="AL37" s="5"/>
     </row>
     <row r="39" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -2168,60 +2196,56 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="8"/>
-      <c r="AC39" s="41" t="s">
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+    </row>
+    <row r="40" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-    </row>
-    <row r="40" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="42" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="R40" s="42" t="s">
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AC40" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -2233,54 +2257,54 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="8"/>
-      <c r="AC42" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-      <c r="AJ42" s="41"/>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="41"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
     </row>
     <row r="43" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R43" s="42" t="s">
+      <c r="R43" s="9"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="42"/>
-      <c r="AC43" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="42"/>
-      <c r="AJ43" s="42"/>
-      <c r="AK43" s="42"/>
-      <c r="AL43" s="42"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
     </row>
     <row r="44" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="B45" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -2291,243 +2315,229 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="8"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
-      <c r="AG45" s="41"/>
-      <c r="AH45" s="41"/>
-      <c r="AI45" s="41"/>
-      <c r="AJ45" s="41"/>
-      <c r="AK45" s="41"/>
-      <c r="AL45" s="41"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
     </row>
     <row r="46" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R46" s="42" t="s">
+      <c r="R46" s="9"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AC46" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
     </row>
     <row r="47" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+    </row>
+    <row r="50" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="47"/>
-      <c r="AL48" s="47"/>
-    </row>
-    <row r="50" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="43" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="57"/>
+      <c r="AC50" s="57"/>
+      <c r="AD50" s="57"/>
+      <c r="AE50" s="57"/>
+      <c r="AF50" s="57"/>
+      <c r="AG50" s="57"/>
+      <c r="AH50" s="57"/>
+      <c r="AI50" s="57"/>
+      <c r="AJ50" s="57"/>
+      <c r="AK50" s="57"/>
+      <c r="AL50" s="57"/>
+      <c r="AM50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="43"/>
-      <c r="AC50" s="43"/>
-      <c r="AD50" s="43"/>
-      <c r="AE50" s="43"/>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="43"/>
-      <c r="AH50" s="43"/>
-      <c r="AI50" s="43"/>
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="43"/>
-      <c r="AL50" s="43"/>
-      <c r="AM50" s="1" t="s">
+    </row>
+    <row r="51" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="44" t="s">
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+    </row>
+    <row r="53" spans="2:39" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-      <c r="AC51" s="44"/>
-      <c r="AD51" s="44"/>
-      <c r="AE51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-    </row>
-    <row r="53" spans="2:39" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="45"/>
-      <c r="AF53" s="45"/>
-      <c r="AG53" s="45"/>
-      <c r="AH53" s="45"/>
-      <c r="AI53" s="45"/>
-      <c r="AJ53" s="45"/>
-      <c r="AK53" s="45"/>
-      <c r="AL53" s="45"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="53"/>
+      <c r="Z53" s="53"/>
+      <c r="AA53" s="53"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="53"/>
+      <c r="AD53" s="53"/>
+      <c r="AE53" s="53"/>
+      <c r="AF53" s="53"/>
+      <c r="AG53" s="53"/>
+      <c r="AH53" s="53"/>
+      <c r="AI53" s="53"/>
+      <c r="AJ53" s="53"/>
+      <c r="AK53" s="53"/>
+      <c r="AL53" s="53"/>
     </row>
     <row r="54" spans="2:39" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="AB33:AG33"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="B50:AL50"/>
+  <mergeCells count="77">
+    <mergeCell ref="B34:AL34"/>
+    <mergeCell ref="B35:AL35"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="AH31:AL31"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="AH33:AL33"/>
     <mergeCell ref="B51:AL51"/>
     <mergeCell ref="B53:AL53"/>
     <mergeCell ref="B45:F45"/>
-    <mergeCell ref="AC45:AL45"/>
-    <mergeCell ref="R46:AA46"/>
-    <mergeCell ref="AC46:AL46"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="F48:AL48"/>
-    <mergeCell ref="H40:P40"/>
-    <mergeCell ref="R40:AA40"/>
-    <mergeCell ref="AC40:AL40"/>
-    <mergeCell ref="AC42:AL42"/>
-    <mergeCell ref="R43:AA43"/>
-    <mergeCell ref="AC43:AL43"/>
-    <mergeCell ref="B34:AL34"/>
-    <mergeCell ref="B35:AL35"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="H39:P39"/>
-    <mergeCell ref="AC39:AL39"/>
+    <mergeCell ref="B50:AL50"/>
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AD29:AG29"/>
     <mergeCell ref="AH29:AL29"/>
-    <mergeCell ref="AB31:AG31"/>
-    <mergeCell ref="AB32:AG32"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="H29:T29"/>
@@ -2591,7 +2601,8 @@
     <mergeCell ref="W4:AL5"/>
     <mergeCell ref="B5:S5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>